--- a/uploads/Part-File.xlsx
+++ b/uploads/Part-File.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshuaBailey\Workspace\Harvest-X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Harvest-X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1839C2AB-8A9E-4625-A431-4CBD917926E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF82DC64-70C7-44EF-944B-679A52D35EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,19 @@
     <sheet name="Participation" sheetId="1" r:id="rId1"/>
     <sheet name="Checkin History" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="480">
   <si>
     <t>Event Date</t>
   </si>
@@ -534,6 +541,933 @@
   </si>
   <si>
     <t>Checked Out By</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Aiden</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Thanos</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Jaxon</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Isaiah</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>Josiah</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Landon</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Asher</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Wyatt</t>
+  </si>
+  <si>
+    <t>Jayden</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Grayson</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
+    <t>Jeremiah</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Easton</t>
+  </si>
+  <si>
+    <t>Nolan</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Ezra</t>
+  </si>
+  <si>
+    <t>Colton</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Brayden</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Dominic</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Jaxson</t>
+  </si>
+  <si>
+    <t>Greyson</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Ezekiel</t>
+  </si>
+  <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Maverick</t>
+  </si>
+  <si>
+    <t>Bryson</t>
+  </si>
+  <si>
+    <t>Jace</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Sawyer</t>
+  </si>
+  <si>
+    <t>Gavin</t>
+  </si>
+  <si>
+    <t>Kayden</t>
+  </si>
+  <si>
+    <t>Ayden</t>
+  </si>
+  <si>
+    <t>Jameson</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>Everett</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Micah</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Weston</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>Wesley</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Declan</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Braxton</t>
+  </si>
+  <si>
+    <t>Damian</t>
+  </si>
+  <si>
+    <t>Silas</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Ryder</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Emmett</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Kai</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Ryker</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Ashton</t>
+  </si>
+  <si>
+    <t>Jayce</t>
+  </si>
+  <si>
+    <t>Rowan</t>
+  </si>
+  <si>
+    <t>Kaiden</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Calvin</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Camden</t>
+  </si>
+  <si>
+    <t>Amir</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>Malachi</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
+  </si>
+  <si>
+    <t>Jonah</t>
+  </si>
+  <si>
+    <t>Beau</t>
+  </si>
+  <si>
+    <t>SMITH</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>WILLIAMS</t>
+  </si>
+  <si>
+    <t>JONES</t>
+  </si>
+  <si>
+    <t>BROWN</t>
+  </si>
+  <si>
+    <t>DAVIS</t>
+  </si>
+  <si>
+    <t>MILLER</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>MOORE</t>
+  </si>
+  <si>
+    <t>TAYLOR</t>
+  </si>
+  <si>
+    <t>ANDERSON</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>JACKSON</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>HARRIS</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>THOMPSON</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>ROBINSON</t>
+  </si>
+  <si>
+    <t>CLARK</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>LEWIS</t>
+  </si>
+  <si>
+    <t>LEE</t>
+  </si>
+  <si>
+    <t>WALKER</t>
+  </si>
+  <si>
+    <t>HALL</t>
+  </si>
+  <si>
+    <t>ALLEN</t>
+  </si>
+  <si>
+    <t>YOUNG</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>KING</t>
+  </si>
+  <si>
+    <t>WRIGHT</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>HILL</t>
+  </si>
+  <si>
+    <t>SCOTT</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>ADAMS</t>
+  </si>
+  <si>
+    <t>BAKER</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>NELSON</t>
+  </si>
+  <si>
+    <t>CARTER</t>
+  </si>
+  <si>
+    <t>MITCHELL</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>ROBERTS</t>
+  </si>
+  <si>
+    <t>TURNER</t>
+  </si>
+  <si>
+    <t>PHILLIPS</t>
+  </si>
+  <si>
+    <t>CAMPBELL</t>
+  </si>
+  <si>
+    <t>PARKER</t>
+  </si>
+  <si>
+    <t>EVANS</t>
+  </si>
+  <si>
+    <t>EDWARDS</t>
+  </si>
+  <si>
+    <t>COLLINS</t>
+  </si>
+  <si>
+    <t>STEWART</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>MORRIS</t>
+  </si>
+  <si>
+    <t>ROGERS</t>
+  </si>
+  <si>
+    <t>REED</t>
+  </si>
+  <si>
+    <t>COOK</t>
+  </si>
+  <si>
+    <t>MORGAN</t>
+  </si>
+  <si>
+    <t>BELL</t>
+  </si>
+  <si>
+    <t>MURPHY</t>
+  </si>
+  <si>
+    <t>BAILEY</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>COOPER</t>
+  </si>
+  <si>
+    <t>RICHARDSON</t>
+  </si>
+  <si>
+    <t>COX</t>
+  </si>
+  <si>
+    <t>HOWARD</t>
+  </si>
+  <si>
+    <t>WARD</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>PETERSON</t>
+  </si>
+  <si>
+    <t>GRAY</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>JAMES</t>
+  </si>
+  <si>
+    <t>WATSON</t>
+  </si>
+  <si>
+    <t>BROOKS</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>SANDERS</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>BENNETT</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>BARNES</t>
+  </si>
+  <si>
+    <t>ROSS</t>
+  </si>
+  <si>
+    <t>HENDERSON</t>
+  </si>
+  <si>
+    <t>COLEMAN</t>
+  </si>
+  <si>
+    <t>JENKINS</t>
+  </si>
+  <si>
+    <t>PERRY</t>
+  </si>
+  <si>
+    <t>POWELL</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>PATTERSON</t>
+  </si>
+  <si>
+    <t>HUGHES</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>BUTLER</t>
+  </si>
+  <si>
+    <t>SIMMONS</t>
+  </si>
+  <si>
+    <t>FOSTER</t>
+  </si>
+  <si>
+    <t>GONZALES</t>
+  </si>
+  <si>
+    <t>BRYANT</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>RUSSELL</t>
+  </si>
+  <si>
+    <t>GRIFFIN</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>HAYES</t>
+  </si>
+  <si>
+    <t>MYERS</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>HAMILTON</t>
+  </si>
+  <si>
+    <t>GRAHAM</t>
+  </si>
+  <si>
+    <t>SULLIVAN</t>
+  </si>
+  <si>
+    <t>WALLACE</t>
+  </si>
+  <si>
+    <t>WOODS</t>
+  </si>
+  <si>
+    <t>COLE</t>
+  </si>
+  <si>
+    <t>WEST</t>
+  </si>
+  <si>
+    <t>JORDAN</t>
+  </si>
+  <si>
+    <t>OWENS</t>
+  </si>
+  <si>
+    <t>REYNOLDS</t>
+  </si>
+  <si>
+    <t>FISHER</t>
+  </si>
+  <si>
+    <t>ELLIS</t>
+  </si>
+  <si>
+    <t>HARRISON</t>
+  </si>
+  <si>
+    <t>GIBSON</t>
+  </si>
+  <si>
+    <t>MCDONALD</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>MARSHALL</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>MURRAY</t>
+  </si>
+  <si>
+    <t>FREEMAN</t>
+  </si>
+  <si>
+    <t>WELLS</t>
+  </si>
+  <si>
+    <t>WEBB</t>
+  </si>
+  <si>
+    <t>SIMPSON</t>
+  </si>
+  <si>
+    <t>STEVENS</t>
+  </si>
+  <si>
+    <t>TUCKER</t>
+  </si>
+  <si>
+    <t>PORTER</t>
+  </si>
+  <si>
+    <t>HUNTER</t>
+  </si>
+  <si>
+    <t>HICKS</t>
+  </si>
+  <si>
+    <t>CRAWFORD</t>
+  </si>
+  <si>
+    <t>HENRY</t>
+  </si>
+  <si>
+    <t>BOYD</t>
+  </si>
+  <si>
+    <t>MASON</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>KENNEDY</t>
+  </si>
+  <si>
+    <t>WARREN</t>
+  </si>
+  <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>BURNS</t>
+  </si>
+  <si>
+    <t>GORDON</t>
+  </si>
+  <si>
+    <t>SHAW</t>
+  </si>
+  <si>
+    <t>HOLMES</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>ROBERTSON</t>
+  </si>
+  <si>
+    <t>HUNT</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>DANIELS</t>
+  </si>
+  <si>
+    <t>PALMER</t>
+  </si>
+  <si>
+    <t>MILLS</t>
+  </si>
+  <si>
+    <t>NICHOLS</t>
+  </si>
+  <si>
+    <t>GRANT</t>
+  </si>
+  <si>
+    <t>KNIGHT</t>
+  </si>
+  <si>
+    <t>FERGUSON</t>
   </si>
 </sst>
 </file>
@@ -547,7 +1481,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,15 +1489,12 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="lightUp"/>
-    </fill>
-    <fill>
       <patternFill patternType="lightDown">
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -571,24 +1502,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,10 +1800,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N200"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -891,18 +1812,19 @@
     <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,4131 +1834,5433 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
         <v>24176382</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="str">
+        <f>PROPER(E2)</f>
+        <v>Smith</v>
+      </c>
+      <c r="E2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE(C2, "@aggies.ncat.edu")</f>
+        <v>Liam@aggies.ncat.edu</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
         <v>35149408</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">PROPER(E3)</f>
+        <v>Johnson</v>
+      </c>
+      <c r="E3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="1">CONCATENATE(C3, "@aggies.ncat.edu")</f>
+        <v>Noah@aggies.ncat.edu</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
         <v>23990006</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Williams</v>
+      </c>
+      <c r="E4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>William@aggies.ncat.edu</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
         <v>24178870</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Jones</v>
+      </c>
+      <c r="E5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>James@aggies.ncat.edu</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6">
         <v>33110972</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Brown</v>
+      </c>
+      <c r="E6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>Logan@aggies.ncat.edu</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
         <v>19161166</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+      <c r="C7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Davis</v>
+      </c>
+      <c r="E7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>Benjamin@aggies.ncat.edu</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
         <v>24184300</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Miller</v>
+      </c>
+      <c r="E8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>Mason@aggies.ncat.edu</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
         <v>14080170</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
+      <c r="C9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Wilson</v>
+      </c>
+      <c r="E9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>Emmanuel@aggies.ncat.edu</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
         <v>35149688</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Moore</v>
+      </c>
+      <c r="E10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>Oliver@aggies.ncat.edu</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
         <v>21911838</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Taylor</v>
+      </c>
+      <c r="E11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>Jacob@aggies.ncat.edu</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
         <v>24172892</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
+      <c r="C12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Anderson</v>
+      </c>
+      <c r="E12" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>Lucas@aggies.ncat.edu</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
         <v>21737482</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Thomas</v>
+      </c>
+      <c r="E13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>Michael@aggies.ncat.edu</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>24180814</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
+      <c r="C14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Jackson</v>
+      </c>
+      <c r="E14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>Alexander@aggies.ncat.edu</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>32826952</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
+      <c r="C15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>White</v>
+      </c>
+      <c r="E15" t="s">
+        <v>337</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethan@aggies.ncat.edu</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16">
         <v>33358984</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Harris</v>
+      </c>
+      <c r="E16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>Daniel@aggies.ncat.edu</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17">
         <v>34873778</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Martin</v>
+      </c>
+      <c r="E17" t="s">
+        <v>339</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>Matthew@aggies.ncat.edu</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18">
         <v>20056942</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Thompson</v>
+      </c>
+      <c r="E18" t="s">
+        <v>340</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>Aiden@aggies.ncat.edu</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19">
         <v>13362004</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Garcia</v>
+      </c>
+      <c r="E19" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>Henry@aggies.ncat.edu</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20">
         <v>24173538</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Martinez</v>
+      </c>
+      <c r="E20" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>Joseph@aggies.ncat.edu</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21">
         <v>13468654</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Robinson</v>
+      </c>
+      <c r="E21" t="s">
+        <v>343</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>Jackson@aggies.ncat.edu</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22">
         <v>18083922</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
+      <c r="C22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Clark</v>
+      </c>
+      <c r="E22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>Samuel@aggies.ncat.edu</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23">
         <v>17711160</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
+      <c r="C23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Rodriguez</v>
+      </c>
+      <c r="E23" t="s">
+        <v>345</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>Sebastian@aggies.ncat.edu</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
         <v>38</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24">
         <v>24178348</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Lewis</v>
+      </c>
+      <c r="E24" t="s">
+        <v>346</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>David@aggies.ncat.edu</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
         <v>39</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25">
         <v>35149554</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>Lee</v>
+      </c>
+      <c r="E25" t="s">
+        <v>347</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>Carter@aggies.ncat.edu</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
       <c r="B26">
         <v>35017316</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>Walker</v>
+      </c>
+      <c r="E26" t="s">
+        <v>348</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>Wyatt@aggies.ncat.edu</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
       <c r="B27">
         <v>25247948</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
+      <c r="C27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Hall</v>
+      </c>
+      <c r="E27" t="s">
+        <v>349</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>Jayden@aggies.ncat.edu</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>41</v>
       </c>
       <c r="B28">
         <v>9497784</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>Allen</v>
+      </c>
+      <c r="E28" t="s">
+        <v>350</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>John@aggies.ncat.edu</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
       <c r="B29">
         <v>33790700</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
+      <c r="C29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>Young</v>
+      </c>
+      <c r="E29" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>Owen@aggies.ncat.edu</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
       <c r="B30">
         <v>34647666</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>Hernandez</v>
+      </c>
+      <c r="E30" t="s">
+        <v>352</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>Dylan@aggies.ncat.edu</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
         <v>46</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
       <c r="B31">
         <v>34650020</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>King</v>
+      </c>
+      <c r="E31" t="s">
+        <v>353</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>Luke@aggies.ncat.edu</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
       <c r="B32">
         <v>18946998</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
+      <c r="C32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Wright</v>
+      </c>
+      <c r="E32" t="s">
+        <v>354</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>Gabriel@aggies.ncat.edu</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
         <v>48</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33">
         <v>24175886</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
+      <c r="C33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Lopez</v>
+      </c>
+      <c r="E33" t="s">
+        <v>355</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>Anthony@aggies.ncat.edu</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
       <c r="B34">
         <v>50</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
+      <c r="C34" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Hill</v>
+      </c>
+      <c r="E34" t="s">
+        <v>356</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>Isaac@aggies.ncat.edu</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35">
         <v>16830662</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
+      <c r="C35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Scott</v>
+      </c>
+      <c r="E35" t="s">
+        <v>357</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>Grayson@aggies.ncat.edu</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
       <c r="B36">
         <v>33880584</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
+      <c r="C36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Green</v>
+      </c>
+      <c r="E36" t="s">
+        <v>358</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>Jack@aggies.ncat.edu</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
         <v>51</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37">
         <v>35182260</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>15</v>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>Adams</v>
+      </c>
+      <c r="E37" t="s">
+        <v>359</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>Julian@aggies.ncat.edu</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38">
         <v>35182270</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Baker</v>
+      </c>
+      <c r="E38" t="s">
+        <v>360</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>Levi@aggies.ncat.edu</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
         <v>52</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39">
         <v>24178794</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
+      <c r="C39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>Gonzalez</v>
+      </c>
+      <c r="E39" t="s">
+        <v>361</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>Christopher@aggies.ncat.edu</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
         <v>24184502</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>15</v>
+      <c r="C40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>Nelson</v>
+      </c>
+      <c r="E40" t="s">
+        <v>362</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>Thanos@aggies.ncat.edu</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41">
         <v>12404356</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>15</v>
+      <c r="C41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Carter</v>
+      </c>
+      <c r="E41" t="s">
+        <v>363</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>Andrew@aggies.ncat.edu</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>24178348</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>15</v>
+      <c r="C42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Mitchell</v>
+      </c>
+      <c r="E42" t="s">
+        <v>364</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>Lincoln@aggies.ncat.edu</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
         <v>55</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
         <v>24176626</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>15</v>
+      <c r="C43" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>Perez</v>
+      </c>
+      <c r="E43" t="s">
+        <v>365</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>Mateo@aggies.ncat.edu</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s">
         <v>56</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
       <c r="B44">
         <v>33188748</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>15</v>
+      <c r="C44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>Roberts</v>
+      </c>
+      <c r="E44" t="s">
+        <v>366</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>Ryan@aggies.ncat.edu</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
       <c r="B45">
         <v>35172754</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>15</v>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>Turner</v>
+      </c>
+      <c r="E45" t="s">
+        <v>367</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>Jaxon@aggies.ncat.edu</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>41</v>
       </c>
       <c r="B46">
         <v>24172420</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>Phillips</v>
+      </c>
+      <c r="E46" t="s">
+        <v>368</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>Nathan@aggies.ncat.edu</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>60</v>
       </c>
       <c r="B47">
         <v>24184300</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>15</v>
+      <c r="C47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>Campbell</v>
+      </c>
+      <c r="E47" t="s">
+        <v>369</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>Aaron@aggies.ncat.edu</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
       <c r="B48">
         <v>35203756</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>15</v>
+      <c r="C48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>Parker</v>
+      </c>
+      <c r="E48" t="s">
+        <v>370</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>Isaiah@aggies.ncat.edu</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
         <v>62</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
       <c r="B49">
         <v>50</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>15</v>
+      <c r="C49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>Evans</v>
+      </c>
+      <c r="E49" t="s">
+        <v>371</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>Thomas@aggies.ncat.edu</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>60</v>
       </c>
       <c r="B50">
         <v>23383672</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>15</v>
+      <c r="C50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>Edwards</v>
+      </c>
+      <c r="E50" t="s">
+        <v>372</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>Charles@aggies.ncat.edu</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
         <v>64</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>60</v>
       </c>
       <c r="B51">
         <v>16978658</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>15</v>
+      <c r="C51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>Collins</v>
+      </c>
+      <c r="E51" t="s">
+        <v>373</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>Caleb@aggies.ncat.edu</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>60</v>
       </c>
       <c r="B52">
         <v>24182572</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>15</v>
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>Stewart</v>
+      </c>
+      <c r="E52" t="s">
+        <v>374</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>Josiah@aggies.ncat.edu</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
         <v>66</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
       <c r="B53">
         <v>23743754</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>15</v>
+      <c r="C53" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>Sanchez</v>
+      </c>
+      <c r="E53" t="s">
+        <v>375</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>Christian@aggies.ncat.edu</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
         <v>67</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54">
         <v>34937438</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>15</v>
+      <c r="C54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>Morris</v>
+      </c>
+      <c r="E54" t="s">
+        <v>376</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>Hunter@aggies.ncat.edu</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" t="s">
         <v>68</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>60</v>
       </c>
       <c r="B55">
         <v>35204170</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>15</v>
+      <c r="C55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>Rogers</v>
+      </c>
+      <c r="E55" t="s">
+        <v>377</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>Eli@aggies.ncat.edu</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
       <c r="B56">
         <v>34413216</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>15</v>
+      <c r="C56" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>Reed</v>
+      </c>
+      <c r="E56" t="s">
+        <v>378</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>Jonathan@aggies.ncat.edu</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57">
         <v>23572320</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>15</v>
+      <c r="C57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>Cook</v>
+      </c>
+      <c r="E57" t="s">
+        <v>379</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>Connor@aggies.ncat.edu</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" t="s">
         <v>71</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58">
         <v>12405372</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>15</v>
+      <c r="C58" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>Morgan</v>
+      </c>
+      <c r="E58" t="s">
+        <v>380</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>Landon@aggies.ncat.edu</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J58" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" t="s">
         <v>73</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59">
         <v>35214520</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>15</v>
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>Bell</v>
+      </c>
+      <c r="E59" t="s">
+        <v>381</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>Adrian@aggies.ncat.edu</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" t="s">
         <v>74</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>75</v>
       </c>
       <c r="B60">
         <v>22196576</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>15</v>
+      <c r="C60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>Murphy</v>
+      </c>
+      <c r="E60" t="s">
+        <v>382</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>Asher@aggies.ncat.edu</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" t="s">
         <v>76</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>75</v>
       </c>
       <c r="B61">
         <v>24182374</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>15</v>
+      <c r="C61" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>Bailey</v>
+      </c>
+      <c r="E61" t="s">
+        <v>383</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>Cameron@aggies.ncat.edu</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J61" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>75</v>
       </c>
       <c r="B62">
         <v>24172012</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>15</v>
+      <c r="C62" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>Rivera</v>
+      </c>
+      <c r="E62" t="s">
+        <v>384</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>Leo@aggies.ncat.edu</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>75</v>
       </c>
       <c r="B63">
         <v>24183700</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>15</v>
+      <c r="C63" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>Cooper</v>
+      </c>
+      <c r="E63" t="s">
+        <v>385</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>Theodore@aggies.ncat.edu</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
       <c r="B64">
         <v>24175174</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>15</v>
+      <c r="C64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>Richardson</v>
+      </c>
+      <c r="E64" t="s">
+        <v>386</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>Jeremiah@aggies.ncat.edu</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" t="s">
         <v>79</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>75</v>
       </c>
       <c r="B65">
         <v>24181260</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>15</v>
+      <c r="C65" t="s">
+        <v>233</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>Cox</v>
+      </c>
+      <c r="E65" t="s">
+        <v>387</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>Hudson@aggies.ncat.edu</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" t="s">
         <v>80</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>75</v>
       </c>
       <c r="B66">
         <v>35214520</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>15</v>
+      <c r="C66" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>Howard</v>
+      </c>
+      <c r="E66" t="s">
+        <v>388</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>Robert@aggies.ncat.edu</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J66" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" t="s">
         <v>81</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>75</v>
       </c>
       <c r="B67">
         <v>12404356</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>15</v>
+      <c r="C67" t="s">
+        <v>235</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="2">PROPER(E67)</f>
+        <v>Ward</v>
+      </c>
+      <c r="E67" t="s">
+        <v>389</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F130" si="3">CONCATENATE(C67, "@aggies.ncat.edu")</f>
+        <v>Easton@aggies.ncat.edu</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J67" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>75</v>
       </c>
       <c r="B68">
         <v>35167850</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>15</v>
+      <c r="C68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="2"/>
+        <v>Torres</v>
+      </c>
+      <c r="E68" t="s">
+        <v>390</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v>Nolan@aggies.ncat.edu</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J68" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69">
         <v>17691620</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>15</v>
+      <c r="C69" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="2"/>
+        <v>Peterson</v>
+      </c>
+      <c r="E69" t="s">
+        <v>391</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v>Nicholas@aggies.ncat.edu</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J69" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>75</v>
       </c>
       <c r="B70">
         <v>24176772</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>15</v>
+      <c r="C70" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="2"/>
+        <v>Gray</v>
+      </c>
+      <c r="E70" t="s">
+        <v>392</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>Ezra@aggies.ncat.edu</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J70" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
       <c r="B71">
         <v>24172736</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>15</v>
+      <c r="C71" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="2"/>
+        <v>Ramirez</v>
+      </c>
+      <c r="E71" t="s">
+        <v>393</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v>Colton@aggies.ncat.edu</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J71" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72">
         <v>33979130</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>15</v>
+      <c r="C72" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="2"/>
+        <v>James</v>
+      </c>
+      <c r="E72" t="s">
+        <v>394</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v>Angel@aggies.ncat.edu</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J72" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73">
         <v>34647666</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>15</v>
+      <c r="C73" t="s">
+        <v>241</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="2"/>
+        <v>Watson</v>
+      </c>
+      <c r="E73" t="s">
+        <v>395</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v>Brayden@aggies.ncat.edu</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" t="s">
         <v>88</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>89</v>
       </c>
       <c r="B74">
         <v>24042262</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>15</v>
+      <c r="C74" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="2"/>
+        <v>Brooks</v>
+      </c>
+      <c r="E74" t="s">
+        <v>396</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v>Jordan@aggies.ncat.edu</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J74" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>89</v>
       </c>
       <c r="B75">
         <v>24184502</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>15</v>
+      <c r="C75" t="s">
+        <v>243</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="2"/>
+        <v>Kelly</v>
+      </c>
+      <c r="E75" t="s">
+        <v>397</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v>Dominic@aggies.ncat.edu</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J75" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>89</v>
       </c>
       <c r="B76">
         <v>13468654</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>15</v>
+      <c r="C76" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="2"/>
+        <v>Sanders</v>
+      </c>
+      <c r="E76" t="s">
+        <v>398</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v>Austin@aggies.ncat.edu</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>89</v>
       </c>
       <c r="B77">
         <v>34413216</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>15</v>
+      <c r="C77" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="2"/>
+        <v>Price</v>
+      </c>
+      <c r="E77" t="s">
+        <v>399</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v>Ian@aggies.ncat.edu</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J77" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>89</v>
       </c>
       <c r="B78">
         <v>18083922</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
-        <v>15</v>
+      <c r="C78" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="2"/>
+        <v>Bennett</v>
+      </c>
+      <c r="E78" t="s">
+        <v>400</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v>Adam@aggies.ncat.edu</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J78" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>89</v>
       </c>
       <c r="B79">
         <v>33357310</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>15</v>
+      <c r="C79" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="2"/>
+        <v>Wood</v>
+      </c>
+      <c r="E79" t="s">
+        <v>401</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="3"/>
+        <v>Elias@aggies.ncat.edu</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J79" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>89</v>
       </c>
       <c r="B80">
         <v>33333436</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>15</v>
+      <c r="C80" t="s">
+        <v>248</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="2"/>
+        <v>Barnes</v>
+      </c>
+      <c r="E80" t="s">
+        <v>402</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="3"/>
+        <v>Jaxson@aggies.ncat.edu</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J80" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>89</v>
       </c>
       <c r="B81">
         <v>35287232</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>15</v>
+      <c r="C81" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="2"/>
+        <v>Ross</v>
+      </c>
+      <c r="E81" t="s">
+        <v>403</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="3"/>
+        <v>Greyson@aggies.ncat.edu</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J81" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>89</v>
       </c>
       <c r="B82">
         <v>24170128</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
-        <v>15</v>
+      <c r="C82" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="2"/>
+        <v>Henderson</v>
+      </c>
+      <c r="E82" t="s">
+        <v>404</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="3"/>
+        <v>Jose@aggies.ncat.edu</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J82" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83">
         <v>32148190</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83" t="s">
-        <v>15</v>
+      <c r="C83" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="2"/>
+        <v>Coleman</v>
+      </c>
+      <c r="E83" t="s">
+        <v>405</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="3"/>
+        <v>Ezekiel@aggies.ncat.edu</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>89</v>
       </c>
       <c r="B84">
         <v>34647666</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
-        <v>15</v>
+      <c r="C84" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="2"/>
+        <v>Jenkins</v>
+      </c>
+      <c r="E84" t="s">
+        <v>406</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="3"/>
+        <v>Carson@aggies.ncat.edu</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J84" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" t="s">
         <v>97</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>89</v>
       </c>
       <c r="B85">
         <v>24183700</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
-        <v>15</v>
+      <c r="C85" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="2"/>
+        <v>Perry</v>
+      </c>
+      <c r="E85" t="s">
+        <v>407</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="3"/>
+        <v>Evan@aggies.ncat.edu</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J85" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>89</v>
       </c>
       <c r="B86">
         <v>21951896</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>15</v>
+      <c r="C86" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="2"/>
+        <v>Powell</v>
+      </c>
+      <c r="E86" t="s">
+        <v>408</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="3"/>
+        <v>Maverick@aggies.ncat.edu</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J86" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87">
         <v>19198536</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
-        <v>15</v>
+      <c r="C87" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="2"/>
+        <v>Long</v>
+      </c>
+      <c r="E87" t="s">
+        <v>409</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="3"/>
+        <v>Bryson@aggies.ncat.edu</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J87" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" t="s">
         <v>100</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88">
         <v>50</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>15</v>
+      <c r="C88" t="s">
+        <v>256</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="2"/>
+        <v>Patterson</v>
+      </c>
+      <c r="E88" t="s">
+        <v>410</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="3"/>
+        <v>Jace@aggies.ncat.edu</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J88" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>89</v>
       </c>
       <c r="B89">
         <v>24176772</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>15</v>
+      <c r="C89" t="s">
+        <v>257</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="2"/>
+        <v>Hughes</v>
+      </c>
+      <c r="E89" t="s">
+        <v>411</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="3"/>
+        <v>Cooper@aggies.ncat.edu</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J89" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90">
         <v>22096704</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>15</v>
+      <c r="C90" t="s">
+        <v>258</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="2"/>
+        <v>Flores</v>
+      </c>
+      <c r="E90" t="s">
+        <v>412</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="3"/>
+        <v>Xavier@aggies.ncat.edu</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J90" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" t="s">
         <v>103</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91">
         <v>35204170</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>15</v>
+      <c r="C91" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="2"/>
+        <v>Washington</v>
+      </c>
+      <c r="E91" t="s">
+        <v>413</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="3"/>
+        <v>Parker@aggies.ncat.edu</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>105</v>
       </c>
       <c r="B92">
         <v>34937438</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92">
+      <c r="C92" t="s">
+        <v>260</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="2"/>
+        <v>Butler</v>
+      </c>
+      <c r="E92" t="s">
+        <v>414</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="3"/>
+        <v>Roman@aggies.ncat.edu</v>
+      </c>
+      <c r="H92">
         <v>0.13333333333333333</v>
       </c>
-      <c r="H92" t="s">
-        <v>15</v>
-      </c>
       <c r="I92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J92" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" t="s">
         <v>106</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>105</v>
       </c>
       <c r="B93">
         <v>34775990</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93">
+      <c r="C93" t="s">
+        <v>261</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="2"/>
+        <v>Simmons</v>
+      </c>
+      <c r="E93" t="s">
+        <v>415</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="3"/>
+        <v>Jason@aggies.ncat.edu</v>
+      </c>
+      <c r="H93">
         <v>0.26666666666666666</v>
       </c>
-      <c r="H93" t="s">
-        <v>15</v>
-      </c>
       <c r="I93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>105</v>
       </c>
       <c r="B94">
         <v>24177618</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94">
+      <c r="C94" t="s">
+        <v>262</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="2"/>
+        <v>Foster</v>
+      </c>
+      <c r="E94" t="s">
+        <v>416</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="3"/>
+        <v>Santiago@aggies.ncat.edu</v>
+      </c>
+      <c r="H94">
         <v>0.16666666666666666</v>
       </c>
-      <c r="H94" t="s">
-        <v>15</v>
-      </c>
       <c r="I94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J94" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
       <c r="B95">
         <v>24184300</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95">
+      <c r="C95" t="s">
+        <v>263</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="2"/>
+        <v>Gonzales</v>
+      </c>
+      <c r="E95" t="s">
+        <v>417</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="3"/>
+        <v>Chase@aggies.ncat.edu</v>
+      </c>
+      <c r="H95">
         <v>0.26666666666666666</v>
       </c>
-      <c r="H95" t="s">
-        <v>15</v>
-      </c>
       <c r="I95" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" t="s">
         <v>109</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>110</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>105</v>
       </c>
       <c r="B96">
         <v>35172754</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96">
+      <c r="C96" t="s">
+        <v>264</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="2"/>
+        <v>Bryant</v>
+      </c>
+      <c r="E96" t="s">
+        <v>418</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="3"/>
+        <v>Sawyer@aggies.ncat.edu</v>
+      </c>
+      <c r="H96">
         <v>0.31666666666666665</v>
       </c>
-      <c r="H96" t="s">
-        <v>15</v>
-      </c>
       <c r="I96" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" t="s">
         <v>109</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>112</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>105</v>
       </c>
       <c r="B97">
         <v>33188748</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97">
+      <c r="C97" t="s">
+        <v>265</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="2"/>
+        <v>Alexander</v>
+      </c>
+      <c r="E97" t="s">
+        <v>419</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="3"/>
+        <v>Gavin@aggies.ncat.edu</v>
+      </c>
+      <c r="H97">
         <v>0.28333333333333333</v>
       </c>
-      <c r="H97" t="s">
-        <v>15</v>
-      </c>
       <c r="I97" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" t="s">
         <v>109</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>114</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>105</v>
       </c>
       <c r="B98">
         <v>24173698</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98">
+      <c r="C98" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="2"/>
+        <v>Russell</v>
+      </c>
+      <c r="E98" t="s">
+        <v>420</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="3"/>
+        <v>Lucas@aggies.ncat.edu</v>
+      </c>
+      <c r="H98">
         <v>0.28333333333333333</v>
       </c>
-      <c r="H98" t="s">
-        <v>15</v>
-      </c>
       <c r="I98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J98" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>117</v>
       </c>
       <c r="B99">
         <v>35017316</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99" t="s">
-        <v>15</v>
+      <c r="C99" t="s">
+        <v>266</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="2"/>
+        <v>Griffin</v>
+      </c>
+      <c r="E99" t="s">
+        <v>421</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="3"/>
+        <v>Kayden@aggies.ncat.edu</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>117</v>
       </c>
       <c r="B100">
         <v>34647666</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
-        <v>15</v>
+      <c r="C100" t="s">
+        <v>267</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="2"/>
+        <v>Diaz</v>
+      </c>
+      <c r="E100" t="s">
+        <v>422</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="3"/>
+        <v>Ayden@aggies.ncat.edu</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J100" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" t="s">
         <v>119</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>117</v>
       </c>
       <c r="B101">
         <v>24184502</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
-        <v>15</v>
+      <c r="C101" t="s">
+        <v>268</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="2"/>
+        <v>Hayes</v>
+      </c>
+      <c r="E101" t="s">
+        <v>423</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="3"/>
+        <v>Jameson@aggies.ncat.edu</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J101" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>117</v>
       </c>
       <c r="B102">
         <v>24173132</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102" t="s">
-        <v>15</v>
+      <c r="C102" t="s">
+        <v>269</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="2"/>
+        <v>Myers</v>
+      </c>
+      <c r="E102" t="s">
+        <v>424</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="3"/>
+        <v>Kevin@aggies.ncat.edu</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J102" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" t="s">
         <v>121</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>117</v>
       </c>
       <c r="B103">
         <v>35149408</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103" t="s">
-        <v>15</v>
+      <c r="C103" t="s">
+        <v>270</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="2"/>
+        <v>Ford</v>
+      </c>
+      <c r="E103" t="s">
+        <v>425</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="3"/>
+        <v>Bentley@aggies.ncat.edu</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>117</v>
       </c>
       <c r="B104">
         <v>24179662</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
-        <v>15</v>
+      <c r="C104" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="2"/>
+        <v>Hamilton</v>
+      </c>
+      <c r="E104" t="s">
+        <v>426</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="3"/>
+        <v>Zachary@aggies.ncat.edu</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J104" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>117</v>
       </c>
       <c r="B105">
         <v>24178348</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
-        <v>15</v>
+      <c r="C105" t="s">
+        <v>272</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="2"/>
+        <v>Graham</v>
+      </c>
+      <c r="E105" t="s">
+        <v>427</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="3"/>
+        <v>Everett@aggies.ncat.edu</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J105" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" t="s">
         <v>124</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>125</v>
       </c>
       <c r="B106">
         <v>34647666</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>15</v>
+      <c r="C106" t="s">
+        <v>273</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="2"/>
+        <v>Sullivan</v>
+      </c>
+      <c r="E106" t="s">
+        <v>428</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="3"/>
+        <v>Axel@aggies.ncat.edu</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>16</v>
-      </c>
-      <c r="L106" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" t="s">
+        <v>16</v>
+      </c>
+      <c r="M106" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>125</v>
       </c>
       <c r="B107">
         <v>35393192</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="H107" t="s">
-        <v>15</v>
+      <c r="C107" t="s">
+        <v>274</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="2"/>
+        <v>Wallace</v>
+      </c>
+      <c r="E107" t="s">
+        <v>429</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="3"/>
+        <v>Tyler@aggies.ncat.edu</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>16</v>
-      </c>
-      <c r="L107" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" t="s">
+        <v>16</v>
+      </c>
+      <c r="M107" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>125</v>
       </c>
       <c r="B108">
         <v>22096704</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108">
-        <v>1</v>
-      </c>
-      <c r="H108" t="s">
-        <v>15</v>
+      <c r="C108" t="s">
+        <v>275</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="2"/>
+        <v>Woods</v>
+      </c>
+      <c r="E108" t="s">
+        <v>430</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="3"/>
+        <v>Micah@aggies.ncat.edu</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J108" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" t="s">
         <v>126</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>125</v>
       </c>
       <c r="B109">
         <v>12404356</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="H109" t="s">
-        <v>15</v>
+      <c r="C109" t="s">
+        <v>276</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="2"/>
+        <v>Cole</v>
+      </c>
+      <c r="E109" t="s">
+        <v>431</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="3"/>
+        <v>Vincent@aggies.ncat.edu</v>
       </c>
       <c r="I109" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" t="s">
         <v>127</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>129</v>
       </c>
       <c r="B110">
         <v>33427064</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110" t="s">
-        <v>15</v>
+      <c r="C110" t="s">
+        <v>277</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="2"/>
+        <v>West</v>
+      </c>
+      <c r="E110" t="s">
+        <v>432</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="3"/>
+        <v>Weston@aggies.ncat.edu</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J110" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110" t="s">
         <v>130</v>
       </c>
-      <c r="L110" t="s">
+      <c r="M110" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>129</v>
       </c>
       <c r="B111">
         <v>24184300</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111" t="s">
-        <v>15</v>
+      <c r="C111" t="s">
+        <v>278</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="2"/>
+        <v>Jordan</v>
+      </c>
+      <c r="E111" t="s">
+        <v>433</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="3"/>
+        <v>Miles@aggies.ncat.edu</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J111" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>129</v>
       </c>
       <c r="B112">
         <v>13362004</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112" t="s">
-        <v>15</v>
+      <c r="C112" t="s">
+        <v>279</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="2"/>
+        <v>Owens</v>
+      </c>
+      <c r="E112" t="s">
+        <v>434</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="3"/>
+        <v>Wesley@aggies.ncat.edu</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J112" t="s">
+        <v>16</v>
+      </c>
+      <c r="K112" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>129</v>
       </c>
       <c r="B113">
         <v>35214520</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="H113" t="s">
-        <v>15</v>
+      <c r="C113" t="s">
+        <v>280</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="2"/>
+        <v>Reynolds</v>
+      </c>
+      <c r="E113" t="s">
+        <v>435</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="3"/>
+        <v>Nathaniel@aggies.ncat.edu</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J113" t="s">
+        <v>16</v>
+      </c>
+      <c r="K113" t="s">
         <v>133</v>
       </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>129</v>
       </c>
       <c r="B114">
         <v>35204170</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114" t="s">
-        <v>15</v>
+      <c r="C114" t="s">
+        <v>281</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="2"/>
+        <v>Fisher</v>
+      </c>
+      <c r="E114" t="s">
+        <v>436</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="3"/>
+        <v>Harrison@aggies.ncat.edu</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J114" t="s">
+        <v>16</v>
+      </c>
+      <c r="K114" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>129</v>
       </c>
       <c r="B115">
         <v>50</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115" t="s">
-        <v>15</v>
+      <c r="C115" t="s">
+        <v>282</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="2"/>
+        <v>Ellis</v>
+      </c>
+      <c r="E115" t="s">
+        <v>437</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="3"/>
+        <v>Brandon@aggies.ncat.edu</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J115" t="s">
+        <v>16</v>
+      </c>
+      <c r="K115" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>129</v>
       </c>
       <c r="B116">
         <v>33188748</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116">
-        <v>1</v>
-      </c>
-      <c r="H116" t="s">
-        <v>15</v>
+      <c r="C116" t="s">
+        <v>283</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="2"/>
+        <v>Harrison</v>
+      </c>
+      <c r="E116" t="s">
+        <v>438</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="3"/>
+        <v>Cole@aggies.ncat.edu</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J116" t="s">
+        <v>16</v>
+      </c>
+      <c r="K116" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>129</v>
       </c>
       <c r="B117">
         <v>35172754</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117" t="s">
-        <v>15</v>
+      <c r="C117" t="s">
+        <v>284</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="2"/>
+        <v>Gibson</v>
+      </c>
+      <c r="E117" t="s">
+        <v>439</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="3"/>
+        <v>Declan@aggies.ncat.edu</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J117" t="s">
+        <v>16</v>
+      </c>
+      <c r="K117" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>129</v>
       </c>
       <c r="B118">
         <v>33742996</v>
       </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118" t="s">
-        <v>15</v>
+      <c r="C118" t="s">
+        <v>285</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="2"/>
+        <v>Mcdonald</v>
+      </c>
+      <c r="E118" t="s">
+        <v>440</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="3"/>
+        <v>Luis@aggies.ncat.edu</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J118" t="s">
+        <v>16</v>
+      </c>
+      <c r="K118" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>138</v>
       </c>
       <c r="B119">
         <v>23817212</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119" t="s">
-        <v>15</v>
+      <c r="C119" t="s">
+        <v>286</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="2"/>
+        <v>Cruz</v>
+      </c>
+      <c r="E119" t="s">
+        <v>441</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="3"/>
+        <v>Braxton@aggies.ncat.edu</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J119" t="s">
+        <v>16</v>
+      </c>
+      <c r="K119" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>138</v>
       </c>
       <c r="B120">
         <v>24174106</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120">
-        <v>1</v>
-      </c>
-      <c r="H120" t="s">
-        <v>15</v>
+      <c r="C120" t="s">
+        <v>287</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="2"/>
+        <v>Marshall</v>
+      </c>
+      <c r="E120" t="s">
+        <v>442</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="3"/>
+        <v>Damian@aggies.ncat.edu</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J120" t="s">
+        <v>16</v>
+      </c>
+      <c r="K120" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>138</v>
       </c>
       <c r="B121">
         <v>23572320</v>
       </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121" t="s">
-        <v>15</v>
+      <c r="C121" t="s">
+        <v>288</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="2"/>
+        <v>Ortiz</v>
+      </c>
+      <c r="E121" t="s">
+        <v>443</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="3"/>
+        <v>Silas@aggies.ncat.edu</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J121" t="s">
+        <v>16</v>
+      </c>
+      <c r="K121" t="s">
         <v>140</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>138</v>
       </c>
       <c r="B122">
         <v>35204170</v>
       </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122" t="s">
-        <v>15</v>
+      <c r="C122" t="s">
+        <v>289</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="2"/>
+        <v>Gomez</v>
+      </c>
+      <c r="E122" t="s">
+        <v>444</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="3"/>
+        <v>Tristan@aggies.ncat.edu</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J122" t="s">
+        <v>16</v>
+      </c>
+      <c r="K122" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>138</v>
       </c>
       <c r="B123">
         <v>18946998</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123" t="s">
-        <v>15</v>
+      <c r="C123" t="s">
+        <v>290</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="2"/>
+        <v>Murray</v>
+      </c>
+      <c r="E123" t="s">
+        <v>445</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="3"/>
+        <v>Ryder@aggies.ncat.edu</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J123" t="s">
+        <v>16</v>
+      </c>
+      <c r="K123" t="s">
         <v>142</v>
       </c>
-      <c r="L123" t="s">
+      <c r="M123" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>138</v>
       </c>
       <c r="B124">
         <v>24176626</v>
       </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124" t="s">
-        <v>15</v>
+      <c r="C124" t="s">
+        <v>291</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="2"/>
+        <v>Freeman</v>
+      </c>
+      <c r="E124" t="s">
+        <v>446</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="3"/>
+        <v>Bennett@aggies.ncat.edu</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J124" t="s">
+        <v>16</v>
+      </c>
+      <c r="K124" t="s">
         <v>143</v>
       </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>138</v>
       </c>
       <c r="B125">
         <v>24179316</v>
       </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125" t="s">
-        <v>15</v>
+      <c r="C125" t="s">
+        <v>292</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="2"/>
+        <v>Wells</v>
+      </c>
+      <c r="E125" t="s">
+        <v>447</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="3"/>
+        <v>George@aggies.ncat.edu</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J125" t="s">
+        <v>16</v>
+      </c>
+      <c r="K125" t="s">
         <v>144</v>
       </c>
-      <c r="L125" t="s">
+      <c r="M125" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>138</v>
       </c>
       <c r="B126">
         <v>12405372</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126" t="s">
-        <v>15</v>
+      <c r="C126" t="s">
+        <v>293</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="2"/>
+        <v>Webb</v>
+      </c>
+      <c r="E126" t="s">
+        <v>448</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="3"/>
+        <v>Emmett@aggies.ncat.edu</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J126" t="s">
+        <v>16</v>
+      </c>
+      <c r="K126" t="s">
         <v>145</v>
       </c>
-      <c r="L126" t="s">
+      <c r="M126" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>138</v>
       </c>
       <c r="B127">
         <v>24184502</v>
       </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127" t="s">
-        <v>15</v>
+      <c r="C127" t="s">
+        <v>294</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="2"/>
+        <v>Simpson</v>
+      </c>
+      <c r="E127" t="s">
+        <v>449</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="3"/>
+        <v>Justin@aggies.ncat.edu</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J127" t="s">
+        <v>16</v>
+      </c>
+      <c r="K127" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>146</v>
       </c>
       <c r="B128">
         <v>16834626</v>
       </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128" t="s">
-        <v>15</v>
+      <c r="C128" t="s">
+        <v>295</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="2"/>
+        <v>Stevens</v>
+      </c>
+      <c r="E128" t="s">
+        <v>450</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="3"/>
+        <v>Kai@aggies.ncat.edu</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>16</v>
-      </c>
-      <c r="L128" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" t="s">
+        <v>16</v>
+      </c>
+      <c r="M128" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>147</v>
       </c>
       <c r="B129">
         <v>24173132</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129" t="s">
-        <v>15</v>
+      <c r="C129" t="s">
+        <v>296</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="2"/>
+        <v>Tucker</v>
+      </c>
+      <c r="E129" t="s">
+        <v>451</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="3"/>
+        <v>Max@aggies.ncat.edu</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J129" t="s">
+        <v>16</v>
+      </c>
+      <c r="K129" t="s">
         <v>148</v>
       </c>
-      <c r="L129" t="s">
+      <c r="M129" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>147</v>
       </c>
       <c r="B130">
         <v>24184502</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="H130" t="s">
-        <v>15</v>
+      <c r="C130" t="s">
+        <v>297</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="2"/>
+        <v>Porter</v>
+      </c>
+      <c r="E130" t="s">
+        <v>452</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="3"/>
+        <v>Diego@aggies.ncat.edu</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
       </c>
       <c r="I130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J130" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>147</v>
       </c>
       <c r="B131">
         <v>24174244</v>
       </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131" t="s">
-        <v>15</v>
+      <c r="C131" t="s">
+        <v>298</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D157" si="4">PROPER(E131)</f>
+        <v>Hunter</v>
+      </c>
+      <c r="E131" t="s">
+        <v>453</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" ref="F131:F157" si="5">CONCATENATE(C131, "@aggies.ncat.edu")</f>
+        <v>Luca@aggies.ncat.edu</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J131" t="s">
+        <v>16</v>
+      </c>
+      <c r="K131" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>147</v>
       </c>
       <c r="B132">
         <v>14197736</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132" t="s">
-        <v>15</v>
+      <c r="C132" t="s">
+        <v>299</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="4"/>
+        <v>Hicks</v>
+      </c>
+      <c r="E132" t="s">
+        <v>454</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" si="5"/>
+        <v>Ryker@aggies.ncat.edu</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J132" t="s">
+        <v>16</v>
+      </c>
+      <c r="K132" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>147</v>
       </c>
       <c r="B133">
         <v>22096704</v>
       </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="H133" t="s">
-        <v>15</v>
+      <c r="C133" t="s">
+        <v>300</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="4"/>
+        <v>Crawford</v>
+      </c>
+      <c r="E133" t="s">
+        <v>455</v>
+      </c>
+      <c r="F133" t="str">
+        <f t="shared" si="5"/>
+        <v>Carlos@aggies.ncat.edu</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J133" t="s">
+        <v>16</v>
+      </c>
+      <c r="K133" t="s">
         <v>151</v>
       </c>
-      <c r="L133" t="s">
+      <c r="M133" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>147</v>
       </c>
       <c r="B134">
         <v>34680624</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="H134" t="s">
-        <v>15</v>
+      <c r="C134" t="s">
+        <v>301</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="4"/>
+        <v>Henry</v>
+      </c>
+      <c r="E134" t="s">
+        <v>456</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="5"/>
+        <v>Maxwell@aggies.ncat.edu</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J134" t="s">
+        <v>16</v>
+      </c>
+      <c r="K134" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>147</v>
       </c>
       <c r="B135">
         <v>18946998</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135" t="s">
-        <v>15</v>
+      <c r="C135" t="s">
+        <v>302</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="4"/>
+        <v>Boyd</v>
+      </c>
+      <c r="E135" t="s">
+        <v>457</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="5"/>
+        <v>Kingston@aggies.ncat.edu</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J135" t="s">
+        <v>16</v>
+      </c>
+      <c r="K135" t="s">
         <v>153</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>154</v>
       </c>
       <c r="B136">
         <v>33979130</v>
       </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136">
+      <c r="C136" t="s">
+        <v>303</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="4"/>
+        <v>Mason</v>
+      </c>
+      <c r="E136" t="s">
+        <v>458</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="5"/>
+        <v>Ivan@aggies.ncat.edu</v>
+      </c>
+      <c r="H136">
         <v>0</v>
       </c>
-      <c r="H136" t="s">
-        <v>15</v>
-      </c>
       <c r="I136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J136" t="s">
+        <v>16</v>
+      </c>
+      <c r="K136" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>154</v>
       </c>
       <c r="B137">
         <v>33720088</v>
       </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="H137" t="s">
-        <v>15</v>
+      <c r="C137" t="s">
+        <v>174</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="4"/>
+        <v>Morales</v>
+      </c>
+      <c r="E137" t="s">
+        <v>459</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="5"/>
+        <v>James@aggies.ncat.edu</v>
       </c>
       <c r="I137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" t="s">
         <v>127</v>
       </c>
-      <c r="J137" t="s">
+      <c r="K137" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>154</v>
       </c>
       <c r="B138">
         <v>18685844</v>
       </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="H138" t="s">
-        <v>15</v>
+      <c r="C138" t="s">
+        <v>304</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="4"/>
+        <v>Kennedy</v>
+      </c>
+      <c r="E138" t="s">
+        <v>460</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="5"/>
+        <v>Juan@aggies.ncat.edu</v>
       </c>
       <c r="I138" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" t="s">
         <v>127</v>
       </c>
-      <c r="J138" t="s">
+      <c r="K138" t="s">
         <v>157</v>
       </c>
-      <c r="L138" t="s">
+      <c r="M138" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>154</v>
       </c>
       <c r="B139">
         <v>23487944</v>
       </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="H139" t="s">
-        <v>15</v>
+      <c r="C139" t="s">
+        <v>305</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="4"/>
+        <v>Warren</v>
+      </c>
+      <c r="E139" t="s">
+        <v>461</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="5"/>
+        <v>Ashton@aggies.ncat.edu</v>
       </c>
       <c r="I139" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" t="s">
         <v>127</v>
       </c>
-      <c r="J139" t="s">
+      <c r="K139" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>154</v>
       </c>
       <c r="B140">
         <v>18083922</v>
       </c>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="H140" t="s">
-        <v>15</v>
+      <c r="C140" t="s">
+        <v>306</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="4"/>
+        <v>Dixon</v>
+      </c>
+      <c r="E140" t="s">
+        <v>462</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="5"/>
+        <v>Jayce@aggies.ncat.edu</v>
       </c>
       <c r="I140" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" t="s">
         <v>127</v>
       </c>
-      <c r="J140" t="s">
+      <c r="K140" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>154</v>
       </c>
       <c r="B141">
         <v>23816890</v>
       </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="H141" t="s">
-        <v>15</v>
+      <c r="C141" t="s">
+        <v>307</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="4"/>
+        <v>Ramos</v>
+      </c>
+      <c r="E141" t="s">
+        <v>463</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="5"/>
+        <v>Rowan@aggies.ncat.edu</v>
       </c>
       <c r="I141" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" t="s">
         <v>127</v>
       </c>
-      <c r="J141" t="s">
+      <c r="K141" t="s">
         <v>160</v>
       </c>
-      <c r="L141" t="s">
+      <c r="M141" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>154</v>
       </c>
       <c r="B142">
         <v>24178348</v>
       </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="H142" t="s">
-        <v>15</v>
+      <c r="C142" t="s">
+        <v>308</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="4"/>
+        <v>Reyes</v>
+      </c>
+      <c r="E142" t="s">
+        <v>464</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="5"/>
+        <v>Kaiden@aggies.ncat.edu</v>
       </c>
       <c r="I142" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" t="s">
         <v>127</v>
       </c>
-      <c r="J142" t="s">
+      <c r="K142" t="s">
         <v>161</v>
       </c>
-      <c r="L142" t="s">
+      <c r="M142" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>154</v>
       </c>
       <c r="B143">
         <v>16830868</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="H143" t="s">
-        <v>15</v>
+      <c r="C143" t="s">
+        <v>309</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="4"/>
+        <v>Burns</v>
+      </c>
+      <c r="E143" t="s">
+        <v>465</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="5"/>
+        <v>Giovanni@aggies.ncat.edu</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J143" t="s">
+        <v>16</v>
+      </c>
+      <c r="K143" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>163</v>
       </c>
       <c r="B144">
         <v>35203756</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144">
+      <c r="C144" t="s">
+        <v>310</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="4"/>
+        <v>Gordon</v>
+      </c>
+      <c r="E144" t="s">
+        <v>466</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="5"/>
+        <v>Eric@aggies.ncat.edu</v>
+      </c>
+      <c r="H144">
         <v>4</v>
       </c>
-      <c r="H144" t="s">
-        <v>15</v>
-      </c>
       <c r="I144" t="s">
-        <v>16</v>
-      </c>
-      <c r="L144" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" t="s">
+        <v>16</v>
+      </c>
+      <c r="M144" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>163</v>
       </c>
       <c r="B145">
         <v>33524160</v>
       </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145" t="s">
-        <v>15</v>
+      <c r="C145" t="s">
+        <v>311</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="4"/>
+        <v>Shaw</v>
+      </c>
+      <c r="E145" t="s">
+        <v>467</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="5"/>
+        <v>Jesus@aggies.ncat.edu</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>16</v>
-      </c>
-      <c r="L145" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" t="s">
+        <v>16</v>
+      </c>
+      <c r="M145" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>163</v>
       </c>
       <c r="B146">
         <v>32800506</v>
       </c>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146">
-        <v>1</v>
-      </c>
-      <c r="H146" t="s">
-        <v>15</v>
+      <c r="C146" t="s">
+        <v>312</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="4"/>
+        <v>Holmes</v>
+      </c>
+      <c r="E146" t="s">
+        <v>468</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="5"/>
+        <v>Calvin@aggies.ncat.edu</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>163</v>
       </c>
       <c r="B147">
         <v>12405372</v>
       </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="H147" t="s">
-        <v>15</v>
+      <c r="C147" t="s">
+        <v>313</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="4"/>
+        <v>Rice</v>
+      </c>
+      <c r="E147" t="s">
+        <v>469</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="5"/>
+        <v>Abel@aggies.ncat.edu</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>16</v>
-      </c>
-      <c r="L147" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" t="s">
+        <v>16</v>
+      </c>
+      <c r="M147" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>164</v>
       </c>
       <c r="B148">
         <v>24183758</v>
       </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148">
-        <v>1</v>
-      </c>
-      <c r="H148" t="s">
-        <v>15</v>
+      <c r="C148" t="s">
+        <v>314</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="4"/>
+        <v>Robertson</v>
+      </c>
+      <c r="E148" t="s">
+        <v>470</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="5"/>
+        <v>King@aggies.ncat.edu</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>164</v>
       </c>
       <c r="B149">
         <v>24177480</v>
       </c>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="H149" t="s">
-        <v>15</v>
+      <c r="C149" t="s">
+        <v>315</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="4"/>
+        <v>Hunt</v>
+      </c>
+      <c r="E149" t="s">
+        <v>471</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="5"/>
+        <v>Camden@aggies.ncat.edu</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>164</v>
       </c>
       <c r="B150">
         <v>24178348</v>
       </c>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="H150" t="s">
-        <v>15</v>
+      <c r="C150" t="s">
+        <v>316</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="4"/>
+        <v>Black</v>
+      </c>
+      <c r="E150" t="s">
+        <v>472</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="5"/>
+        <v>Amir@aggies.ncat.edu</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>16</v>
-      </c>
-      <c r="L150" t="s">
+        <v>15</v>
+      </c>
+      <c r="J150" t="s">
+        <v>16</v>
+      </c>
+      <c r="M150" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>164</v>
       </c>
       <c r="B151">
         <v>7895608</v>
       </c>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="H151" t="s">
-        <v>15</v>
+      <c r="C151" t="s">
+        <v>317</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="4"/>
+        <v>Daniels</v>
+      </c>
+      <c r="E151" t="s">
+        <v>473</v>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="5"/>
+        <v>Blake@aggies.ncat.edu</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>164</v>
       </c>
       <c r="B152">
         <v>13362004</v>
       </c>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152" t="s">
-        <v>15</v>
+      <c r="C152" t="s">
+        <v>318</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="4"/>
+        <v>Palmer</v>
+      </c>
+      <c r="E152" t="s">
+        <v>474</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="5"/>
+        <v>Alex@aggies.ncat.edu</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>164</v>
       </c>
       <c r="B153">
         <v>24179316</v>
       </c>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153" t="s">
-        <v>15</v>
+      <c r="C153" t="s">
+        <v>319</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="4"/>
+        <v>Mills</v>
+      </c>
+      <c r="E153" t="s">
+        <v>475</v>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="5"/>
+        <v>Brody@aggies.ncat.edu</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>16</v>
-      </c>
-      <c r="L153" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" t="s">
+        <v>16</v>
+      </c>
+      <c r="M153" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>164</v>
       </c>
       <c r="B154">
         <v>34423558</v>
       </c>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154" t="s">
-        <v>15</v>
+      <c r="C154" t="s">
+        <v>320</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="4"/>
+        <v>Nichols</v>
+      </c>
+      <c r="E154" t="s">
+        <v>476</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="5"/>
+        <v>Malachi@aggies.ncat.edu</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>164</v>
       </c>
       <c r="B155">
         <v>23573594</v>
       </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155" t="s">
-        <v>15</v>
+      <c r="C155" t="s">
+        <v>321</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="4"/>
+        <v>Grant</v>
+      </c>
+      <c r="E155" t="s">
+        <v>477</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="5"/>
+        <v>Emmanuel@aggies.ncat.edu</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="J155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>164</v>
       </c>
       <c r="B156">
         <v>23528</v>
       </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="H156" t="s">
-        <v>15</v>
+      <c r="C156" t="s">
+        <v>322</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="4"/>
+        <v>Knight</v>
+      </c>
+      <c r="E156" t="s">
+        <v>478</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="5"/>
+        <v>Jonah@aggies.ncat.edu</v>
       </c>
       <c r="I156" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" t="s">
         <v>127</v>
       </c>
-      <c r="J156" t="s">
+      <c r="K156" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>164</v>
       </c>
       <c r="B157">
         <v>33742996</v>
       </c>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="H157" t="s">
-        <v>15</v>
+      <c r="C157" t="s">
+        <v>323</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="4"/>
+        <v>Ferguson</v>
+      </c>
+      <c r="E157" t="s">
+        <v>479</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="5"/>
+        <v>Beau@aggies.ncat.edu</v>
       </c>
       <c r="I157" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" t="s">
         <v>127</v>
       </c>
-      <c r="J157" t="s">
+      <c r="K157" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-    </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5045,6 +7269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
@@ -5102,10 +7327,10 @@
       <c r="B2">
         <v>17468694</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" t="s">
         <v>106</v>
       </c>
@@ -5117,10 +7342,10 @@
       <c r="B3">
         <v>17387970</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" t="s">
         <v>107</v>
       </c>
@@ -5132,10 +7357,10 @@
       <c r="B4">
         <v>12088784</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>108</v>
       </c>
@@ -5147,10 +7372,10 @@
       <c r="B5">
         <v>12092125</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" t="s">
         <v>110</v>
       </c>
@@ -5165,10 +7390,10 @@
       <c r="B6">
         <v>17586352</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" t="s">
         <v>112</v>
       </c>
@@ -5183,10 +7408,10 @@
       <c r="B7">
         <v>16594349</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" t="s">
         <v>114</v>
       </c>
@@ -5201,10 +7426,10 @@
       <c r="B8">
         <v>12086824</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" t="s">
         <v>116</v>
       </c>
@@ -5216,10 +7441,10 @@
       <c r="B9">
         <v>6202153</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" t="s">
         <v>128</v>
       </c>
@@ -5231,10 +7456,10 @@
       <c r="B10">
         <v>16989540</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" t="s">
         <v>155</v>
       </c>
@@ -5246,10 +7471,10 @@
       <c r="B11">
         <v>16860019</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" t="s">
         <v>156</v>
       </c>
@@ -5261,10 +7486,10 @@
       <c r="B12">
         <v>9342897</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" t="s">
         <v>157</v>
       </c>
@@ -5276,10 +7501,10 @@
       <c r="B13">
         <v>11743947</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" t="s">
         <v>158</v>
       </c>
@@ -5291,10 +7516,10 @@
       <c r="B14">
         <v>9041936</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" t="s">
         <v>159</v>
       </c>
@@ -5306,10 +7531,10 @@
       <c r="B15">
         <v>11908420</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" t="s">
         <v>160</v>
       </c>
@@ -5321,10 +7546,10 @@
       <c r="B16">
         <v>12089149</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" t="s">
         <v>161</v>
       </c>
@@ -5336,10 +7561,10 @@
       <c r="B17">
         <v>11739</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" t="s">
         <v>165</v>
       </c>
@@ -5351,19 +7576,19 @@
       <c r="B18">
         <v>16871473</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/Part-File.xlsx
+++ b/uploads/Part-File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Harvest-X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF82DC64-70C7-44EF-944B-679A52D35EB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A0FC6F-3DEB-4357-B0C7-C3E532A3B400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="479">
   <si>
     <t>Event Date</t>
   </si>
@@ -544,9 +544,6 @@
   </si>
   <si>
     <t>Liam</t>
-  </si>
-  <si>
-    <t>Noah</t>
   </si>
   <si>
     <t>William</t>
@@ -1804,7 +1801,7 @@
   <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1883,7 +1880,7 @@
         <v>Smith</v>
       </c>
       <c r="E2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(C2, "@aggies.ncat.edu")</f>
@@ -1913,18 +1910,18 @@
         <v>35149408</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">PROPER(E3)</f>
+        <f>PROPER(E3)</f>
         <v>Johnson</v>
       </c>
       <c r="E3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="1">CONCATENATE(C3, "@aggies.ncat.edu")</f>
-        <v>Noah@aggies.ncat.edu</v>
+        <f t="shared" ref="F3:F66" si="0">CONCATENATE(C3, "@aggies.ncat.edu")</f>
+        <v>Liam@aggies.ncat.edu</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1947,17 +1944,17 @@
         <v>23990006</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" t="str">
+        <f t="shared" ref="D3:D66" si="1">PROPER(E4)</f>
+        <v>Williams</v>
+      </c>
+      <c r="E4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>Williams</v>
-      </c>
-      <c r="E4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="1"/>
         <v>William@aggies.ncat.edu</v>
       </c>
       <c r="H4">
@@ -1981,17 +1978,17 @@
         <v>24178870</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>Jones</v>
+      </c>
+      <c r="E5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>Jones</v>
-      </c>
-      <c r="E5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
         <v>James@aggies.ncat.edu</v>
       </c>
       <c r="H5">
@@ -2015,17 +2012,17 @@
         <v>33110972</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>Brown</v>
+      </c>
+      <c r="E6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>Brown</v>
-      </c>
-      <c r="E6" t="s">
-        <v>328</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
         <v>Logan@aggies.ncat.edu</v>
       </c>
       <c r="H6">
@@ -2046,17 +2043,17 @@
         <v>19161166</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>Davis</v>
+      </c>
+      <c r="E7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>Davis</v>
-      </c>
-      <c r="E7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
         <v>Benjamin@aggies.ncat.edu</v>
       </c>
       <c r="H7">
@@ -2080,17 +2077,17 @@
         <v>24184300</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>Miller</v>
+      </c>
+      <c r="E8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>Miller</v>
-      </c>
-      <c r="E8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
         <v>Mason@aggies.ncat.edu</v>
       </c>
       <c r="H8">
@@ -2114,17 +2111,17 @@
         <v>14080170</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilson</v>
+      </c>
+      <c r="E9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>Wilson</v>
-      </c>
-      <c r="E9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
         <v>Emmanuel@aggies.ncat.edu</v>
       </c>
       <c r="H9">
@@ -2148,17 +2145,17 @@
         <v>35149688</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>Moore</v>
+      </c>
+      <c r="E10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>Moore</v>
-      </c>
-      <c r="E10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
         <v>Oliver@aggies.ncat.edu</v>
       </c>
       <c r="H10">
@@ -2179,17 +2176,17 @@
         <v>21911838</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>Taylor</v>
+      </c>
+      <c r="E11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>Taylor</v>
-      </c>
-      <c r="E11" t="s">
-        <v>333</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
         <v>Jacob@aggies.ncat.edu</v>
       </c>
       <c r="H11">
@@ -2213,17 +2210,17 @@
         <v>24172892</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>Anderson</v>
+      </c>
+      <c r="E12" t="s">
+        <v>333</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>Anderson</v>
-      </c>
-      <c r="E12" t="s">
-        <v>334</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
         <v>Lucas@aggies.ncat.edu</v>
       </c>
       <c r="H12">
@@ -2247,17 +2244,17 @@
         <v>21737482</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>Thomas</v>
+      </c>
+      <c r="E13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>Thomas</v>
-      </c>
-      <c r="E13" t="s">
-        <v>335</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
         <v>Michael@aggies.ncat.edu</v>
       </c>
       <c r="H13">
@@ -2281,17 +2278,17 @@
         <v>24180814</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>Jackson</v>
+      </c>
+      <c r="E14" t="s">
+        <v>335</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>Jackson</v>
-      </c>
-      <c r="E14" t="s">
-        <v>336</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
         <v>Alexander@aggies.ncat.edu</v>
       </c>
       <c r="H14">
@@ -2315,17 +2312,17 @@
         <v>32826952</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>White</v>
+      </c>
+      <c r="E15" t="s">
+        <v>336</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>White</v>
-      </c>
-      <c r="E15" t="s">
-        <v>337</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
         <v>Ethan@aggies.ncat.edu</v>
       </c>
       <c r="H15">
@@ -2349,17 +2346,17 @@
         <v>33358984</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>Harris</v>
+      </c>
+      <c r="E16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>Harris</v>
-      </c>
-      <c r="E16" t="s">
-        <v>338</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
         <v>Daniel@aggies.ncat.edu</v>
       </c>
       <c r="H16">
@@ -2383,17 +2380,17 @@
         <v>34873778</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>Martin</v>
+      </c>
+      <c r="E17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>Martin</v>
-      </c>
-      <c r="E17" t="s">
-        <v>339</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
         <v>Matthew@aggies.ncat.edu</v>
       </c>
       <c r="H17">
@@ -2417,17 +2414,17 @@
         <v>20056942</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>Thompson</v>
+      </c>
+      <c r="E18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>Thompson</v>
-      </c>
-      <c r="E18" t="s">
-        <v>340</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
         <v>Aiden@aggies.ncat.edu</v>
       </c>
       <c r="H18">
@@ -2451,17 +2448,17 @@
         <v>13362004</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>Garcia</v>
+      </c>
+      <c r="E19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>Garcia</v>
-      </c>
-      <c r="E19" t="s">
-        <v>341</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
         <v>Henry@aggies.ncat.edu</v>
       </c>
       <c r="H19">
@@ -2485,17 +2482,17 @@
         <v>24173538</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>Martinez</v>
+      </c>
+      <c r="E20" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>Martinez</v>
-      </c>
-      <c r="E20" t="s">
-        <v>342</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
         <v>Joseph@aggies.ncat.edu</v>
       </c>
       <c r="H20">
@@ -2519,17 +2516,17 @@
         <v>13468654</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>Robinson</v>
+      </c>
+      <c r="E21" t="s">
+        <v>342</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>Robinson</v>
-      </c>
-      <c r="E21" t="s">
-        <v>343</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
         <v>Jackson@aggies.ncat.edu</v>
       </c>
       <c r="H21">
@@ -2553,17 +2550,17 @@
         <v>18083922</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>Clark</v>
+      </c>
+      <c r="E22" t="s">
+        <v>343</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>Clark</v>
-      </c>
-      <c r="E22" t="s">
-        <v>344</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
         <v>Samuel@aggies.ncat.edu</v>
       </c>
       <c r="H22">
@@ -2587,17 +2584,17 @@
         <v>17711160</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>Rodriguez</v>
+      </c>
+      <c r="E23" t="s">
+        <v>344</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>Rodriguez</v>
-      </c>
-      <c r="E23" t="s">
-        <v>345</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
         <v>Sebastian@aggies.ncat.edu</v>
       </c>
       <c r="H23">
@@ -2624,17 +2621,17 @@
         <v>24178348</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>Lewis</v>
+      </c>
+      <c r="E24" t="s">
+        <v>345</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>Lewis</v>
-      </c>
-      <c r="E24" t="s">
-        <v>346</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
         <v>David@aggies.ncat.edu</v>
       </c>
       <c r="H24">
@@ -2661,17 +2658,17 @@
         <v>35149554</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>Lee</v>
+      </c>
+      <c r="E25" t="s">
+        <v>346</v>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>Lee</v>
-      </c>
-      <c r="E25" t="s">
-        <v>347</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
         <v>Carter@aggies.ncat.edu</v>
       </c>
       <c r="H25">
@@ -2695,17 +2692,17 @@
         <v>35017316</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>Walker</v>
+      </c>
+      <c r="E26" t="s">
+        <v>347</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>Walker</v>
-      </c>
-      <c r="E26" t="s">
-        <v>348</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
         <v>Wyatt@aggies.ncat.edu</v>
       </c>
       <c r="H26">
@@ -2729,17 +2726,17 @@
         <v>25247948</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>Hall</v>
+      </c>
+      <c r="E27" t="s">
+        <v>348</v>
+      </c>
+      <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>Hall</v>
-      </c>
-      <c r="E27" t="s">
-        <v>349</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
         <v>Jayden@aggies.ncat.edu</v>
       </c>
       <c r="H27">
@@ -2763,17 +2760,17 @@
         <v>9497784</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>Allen</v>
+      </c>
+      <c r="E28" t="s">
+        <v>349</v>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>Allen</v>
-      </c>
-      <c r="E28" t="s">
-        <v>350</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
         <v>John@aggies.ncat.edu</v>
       </c>
       <c r="H28">
@@ -2797,17 +2794,17 @@
         <v>33790700</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>Young</v>
+      </c>
+      <c r="E29" t="s">
+        <v>350</v>
+      </c>
+      <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>Young</v>
-      </c>
-      <c r="E29" t="s">
-        <v>351</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="1"/>
         <v>Owen@aggies.ncat.edu</v>
       </c>
       <c r="H29">
@@ -2834,17 +2831,17 @@
         <v>34647666</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>Hernandez</v>
+      </c>
+      <c r="E30" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>Hernandez</v>
-      </c>
-      <c r="E30" t="s">
-        <v>352</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="1"/>
         <v>Dylan@aggies.ncat.edu</v>
       </c>
       <c r="H30">
@@ -2871,17 +2868,17 @@
         <v>34650020</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>King</v>
+      </c>
+      <c r="E31" t="s">
+        <v>352</v>
+      </c>
+      <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>King</v>
-      </c>
-      <c r="E31" t="s">
-        <v>353</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="1"/>
         <v>Luke@aggies.ncat.edu</v>
       </c>
       <c r="H31">
@@ -2905,17 +2902,17 @@
         <v>18946998</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>Wright</v>
+      </c>
+      <c r="E32" t="s">
+        <v>353</v>
+      </c>
+      <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>Wright</v>
-      </c>
-      <c r="E32" t="s">
-        <v>354</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="1"/>
         <v>Gabriel@aggies.ncat.edu</v>
       </c>
       <c r="H32">
@@ -2942,17 +2939,17 @@
         <v>24175886</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>Lopez</v>
+      </c>
+      <c r="E33" t="s">
+        <v>354</v>
+      </c>
+      <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>Lopez</v>
-      </c>
-      <c r="E33" t="s">
-        <v>355</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="1"/>
         <v>Anthony@aggies.ncat.edu</v>
       </c>
       <c r="H33">
@@ -2976,17 +2973,17 @@
         <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>Hill</v>
+      </c>
+      <c r="E34" t="s">
+        <v>355</v>
+      </c>
+      <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>Hill</v>
-      </c>
-      <c r="E34" t="s">
-        <v>356</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="1"/>
         <v>Isaac@aggies.ncat.edu</v>
       </c>
       <c r="H34">
@@ -3010,17 +3007,17 @@
         <v>16830662</v>
       </c>
       <c r="C35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>Scott</v>
+      </c>
+      <c r="E35" t="s">
+        <v>356</v>
+      </c>
+      <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>Scott</v>
-      </c>
-      <c r="E35" t="s">
-        <v>357</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="1"/>
         <v>Grayson@aggies.ncat.edu</v>
       </c>
       <c r="H35">
@@ -3044,17 +3041,17 @@
         <v>33880584</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>Green</v>
+      </c>
+      <c r="E36" t="s">
+        <v>357</v>
+      </c>
+      <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>Green</v>
-      </c>
-      <c r="E36" t="s">
-        <v>358</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="1"/>
         <v>Jack@aggies.ncat.edu</v>
       </c>
       <c r="H36">
@@ -3081,17 +3078,17 @@
         <v>35182260</v>
       </c>
       <c r="C37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>Adams</v>
+      </c>
+      <c r="E37" t="s">
+        <v>358</v>
+      </c>
+      <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>Adams</v>
-      </c>
-      <c r="E37" t="s">
-        <v>359</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
         <v>Julian@aggies.ncat.edu</v>
       </c>
       <c r="H37">
@@ -3115,17 +3112,17 @@
         <v>35182270</v>
       </c>
       <c r="C38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>Baker</v>
+      </c>
+      <c r="E38" t="s">
+        <v>359</v>
+      </c>
+      <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>Baker</v>
-      </c>
-      <c r="E38" t="s">
-        <v>360</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="1"/>
         <v>Levi@aggies.ncat.edu</v>
       </c>
       <c r="H38">
@@ -3152,17 +3149,17 @@
         <v>24178794</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>Gonzalez</v>
+      </c>
+      <c r="E39" t="s">
+        <v>360</v>
+      </c>
+      <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>Gonzalez</v>
-      </c>
-      <c r="E39" t="s">
-        <v>361</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="1"/>
         <v>Christopher@aggies.ncat.edu</v>
       </c>
       <c r="H39">
@@ -3186,17 +3183,17 @@
         <v>24184502</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>Nelson</v>
+      </c>
+      <c r="E40" t="s">
+        <v>361</v>
+      </c>
+      <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>Nelson</v>
-      </c>
-      <c r="E40" t="s">
-        <v>362</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="1"/>
         <v>Thanos@aggies.ncat.edu</v>
       </c>
       <c r="H40">
@@ -3220,17 +3217,17 @@
         <v>12404356</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>Carter</v>
+      </c>
+      <c r="E41" t="s">
+        <v>362</v>
+      </c>
+      <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>Carter</v>
-      </c>
-      <c r="E41" t="s">
-        <v>363</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="1"/>
         <v>Andrew@aggies.ncat.edu</v>
       </c>
       <c r="H41">
@@ -3254,17 +3251,17 @@
         <v>24178348</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>Mitchell</v>
+      </c>
+      <c r="E42" t="s">
+        <v>363</v>
+      </c>
+      <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>Mitchell</v>
-      </c>
-      <c r="E42" t="s">
-        <v>364</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="1"/>
         <v>Lincoln@aggies.ncat.edu</v>
       </c>
       <c r="H42">
@@ -3291,17 +3288,17 @@
         <v>24176626</v>
       </c>
       <c r="C43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>Perez</v>
+      </c>
+      <c r="E43" t="s">
+        <v>364</v>
+      </c>
+      <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>Perez</v>
-      </c>
-      <c r="E43" t="s">
-        <v>365</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="1"/>
         <v>Mateo@aggies.ncat.edu</v>
       </c>
       <c r="H43">
@@ -3328,17 +3325,17 @@
         <v>33188748</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>Roberts</v>
+      </c>
+      <c r="E44" t="s">
+        <v>365</v>
+      </c>
+      <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>Roberts</v>
-      </c>
-      <c r="E44" t="s">
-        <v>366</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="1"/>
         <v>Ryan@aggies.ncat.edu</v>
       </c>
       <c r="H44">
@@ -3362,17 +3359,17 @@
         <v>35172754</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>Turner</v>
+      </c>
+      <c r="E45" t="s">
+        <v>366</v>
+      </c>
+      <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>Turner</v>
-      </c>
-      <c r="E45" t="s">
-        <v>367</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="1"/>
         <v>Jaxon@aggies.ncat.edu</v>
       </c>
       <c r="H45">
@@ -3396,17 +3393,17 @@
         <v>24172420</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>Phillips</v>
+      </c>
+      <c r="E46" t="s">
+        <v>367</v>
+      </c>
+      <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>Phillips</v>
-      </c>
-      <c r="E46" t="s">
-        <v>368</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="1"/>
         <v>Nathan@aggies.ncat.edu</v>
       </c>
       <c r="H46">
@@ -3430,17 +3427,17 @@
         <v>24184300</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>Campbell</v>
+      </c>
+      <c r="E47" t="s">
+        <v>368</v>
+      </c>
+      <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>Campbell</v>
-      </c>
-      <c r="E47" t="s">
-        <v>369</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="1"/>
         <v>Aaron@aggies.ncat.edu</v>
       </c>
       <c r="H47">
@@ -3464,17 +3461,17 @@
         <v>35203756</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>Parker</v>
+      </c>
+      <c r="E48" t="s">
+        <v>369</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>Parker</v>
-      </c>
-      <c r="E48" t="s">
-        <v>370</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="1"/>
         <v>Isaiah@aggies.ncat.edu</v>
       </c>
       <c r="H48">
@@ -3501,17 +3498,17 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>Evans</v>
+      </c>
+      <c r="E49" t="s">
+        <v>370</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>Evans</v>
-      </c>
-      <c r="E49" t="s">
-        <v>371</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="1"/>
         <v>Thomas@aggies.ncat.edu</v>
       </c>
       <c r="H49">
@@ -3535,17 +3532,17 @@
         <v>23383672</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>Edwards</v>
+      </c>
+      <c r="E50" t="s">
+        <v>371</v>
+      </c>
+      <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>Edwards</v>
-      </c>
-      <c r="E50" t="s">
-        <v>372</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="1"/>
         <v>Charles@aggies.ncat.edu</v>
       </c>
       <c r="H50">
@@ -3572,17 +3569,17 @@
         <v>16978658</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>Collins</v>
+      </c>
+      <c r="E51" t="s">
+        <v>372</v>
+      </c>
+      <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>Collins</v>
-      </c>
-      <c r="E51" t="s">
-        <v>373</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="1"/>
         <v>Caleb@aggies.ncat.edu</v>
       </c>
       <c r="H51">
@@ -3606,17 +3603,17 @@
         <v>24182572</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>Stewart</v>
+      </c>
+      <c r="E52" t="s">
+        <v>373</v>
+      </c>
+      <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>Stewart</v>
-      </c>
-      <c r="E52" t="s">
-        <v>374</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="1"/>
         <v>Josiah@aggies.ncat.edu</v>
       </c>
       <c r="H52">
@@ -3643,17 +3640,17 @@
         <v>23743754</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>Sanchez</v>
+      </c>
+      <c r="E53" t="s">
+        <v>374</v>
+      </c>
+      <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>Sanchez</v>
-      </c>
-      <c r="E53" t="s">
-        <v>375</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="1"/>
         <v>Christian@aggies.ncat.edu</v>
       </c>
       <c r="H53">
@@ -3680,17 +3677,17 @@
         <v>34937438</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>Morris</v>
+      </c>
+      <c r="E54" t="s">
+        <v>375</v>
+      </c>
+      <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>Morris</v>
-      </c>
-      <c r="E54" t="s">
-        <v>376</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="1"/>
         <v>Hunter@aggies.ncat.edu</v>
       </c>
       <c r="H54">
@@ -3717,17 +3714,17 @@
         <v>35204170</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>Rogers</v>
+      </c>
+      <c r="E55" t="s">
+        <v>376</v>
+      </c>
+      <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>Rogers</v>
-      </c>
-      <c r="E55" t="s">
-        <v>377</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="1"/>
         <v>Eli@aggies.ncat.edu</v>
       </c>
       <c r="H55">
@@ -3751,17 +3748,17 @@
         <v>34413216</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>Reed</v>
+      </c>
+      <c r="E56" t="s">
+        <v>377</v>
+      </c>
+      <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>Reed</v>
-      </c>
-      <c r="E56" t="s">
-        <v>378</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="1"/>
         <v>Jonathan@aggies.ncat.edu</v>
       </c>
       <c r="H56">
@@ -3785,17 +3782,17 @@
         <v>23572320</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>Cook</v>
+      </c>
+      <c r="E57" t="s">
+        <v>378</v>
+      </c>
+      <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>Cook</v>
-      </c>
-      <c r="E57" t="s">
-        <v>379</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="1"/>
         <v>Connor@aggies.ncat.edu</v>
       </c>
       <c r="H57">
@@ -3822,17 +3819,17 @@
         <v>12405372</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>Morgan</v>
+      </c>
+      <c r="E58" t="s">
+        <v>379</v>
+      </c>
+      <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>Morgan</v>
-      </c>
-      <c r="E58" t="s">
-        <v>380</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="1"/>
         <v>Landon@aggies.ncat.edu</v>
       </c>
       <c r="H58">
@@ -3859,17 +3856,17 @@
         <v>35214520</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>Bell</v>
+      </c>
+      <c r="E59" t="s">
+        <v>380</v>
+      </c>
+      <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>Bell</v>
-      </c>
-      <c r="E59" t="s">
-        <v>381</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="1"/>
         <v>Adrian@aggies.ncat.edu</v>
       </c>
       <c r="H59">
@@ -3896,17 +3893,17 @@
         <v>22196576</v>
       </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>Murphy</v>
+      </c>
+      <c r="E60" t="s">
+        <v>381</v>
+      </c>
+      <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>Murphy</v>
-      </c>
-      <c r="E60" t="s">
-        <v>382</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="1"/>
         <v>Asher@aggies.ncat.edu</v>
       </c>
       <c r="H60">
@@ -3933,17 +3930,17 @@
         <v>24182374</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>Bailey</v>
+      </c>
+      <c r="E61" t="s">
+        <v>382</v>
+      </c>
+      <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>Bailey</v>
-      </c>
-      <c r="E61" t="s">
-        <v>383</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="1"/>
         <v>Cameron@aggies.ncat.edu</v>
       </c>
       <c r="H61">
@@ -3967,17 +3964,17 @@
         <v>24172012</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v>Rivera</v>
+      </c>
+      <c r="E62" t="s">
+        <v>383</v>
+      </c>
+      <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>Rivera</v>
-      </c>
-      <c r="E62" t="s">
-        <v>384</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="1"/>
         <v>Leo@aggies.ncat.edu</v>
       </c>
       <c r="H62">
@@ -4001,17 +3998,17 @@
         <v>24183700</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>Cooper</v>
+      </c>
+      <c r="E63" t="s">
+        <v>384</v>
+      </c>
+      <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>Cooper</v>
-      </c>
-      <c r="E63" t="s">
-        <v>385</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="1"/>
         <v>Theodore@aggies.ncat.edu</v>
       </c>
       <c r="H63">
@@ -4035,17 +4032,17 @@
         <v>24175174</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v>Richardson</v>
+      </c>
+      <c r="E64" t="s">
+        <v>385</v>
+      </c>
+      <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>Richardson</v>
-      </c>
-      <c r="E64" t="s">
-        <v>386</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="1"/>
         <v>Jeremiah@aggies.ncat.edu</v>
       </c>
       <c r="H64">
@@ -4072,17 +4069,17 @@
         <v>24181260</v>
       </c>
       <c r="C65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v>Cox</v>
+      </c>
+      <c r="E65" t="s">
+        <v>386</v>
+      </c>
+      <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>Cox</v>
-      </c>
-      <c r="E65" t="s">
-        <v>387</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="1"/>
         <v>Hudson@aggies.ncat.edu</v>
       </c>
       <c r="H65">
@@ -4109,17 +4106,17 @@
         <v>35214520</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v>Howard</v>
+      </c>
+      <c r="E66" t="s">
+        <v>387</v>
+      </c>
+      <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>Howard</v>
-      </c>
-      <c r="E66" t="s">
-        <v>388</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" si="1"/>
         <v>Robert@aggies.ncat.edu</v>
       </c>
       <c r="H66">
@@ -4146,14 +4143,14 @@
         <v>12404356</v>
       </c>
       <c r="C67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D130" si="2">PROPER(E67)</f>
         <v>Ward</v>
       </c>
       <c r="E67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="3">CONCATENATE(C67, "@aggies.ncat.edu")</f>
@@ -4180,14 +4177,14 @@
         <v>35167850</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="2"/>
         <v>Torres</v>
       </c>
       <c r="E68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="3"/>
@@ -4214,14 +4211,14 @@
         <v>17691620</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="2"/>
         <v>Peterson</v>
       </c>
       <c r="E69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="3"/>
@@ -4248,14 +4245,14 @@
         <v>24176772</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="2"/>
         <v>Gray</v>
       </c>
       <c r="E70" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="3"/>
@@ -4282,14 +4279,14 @@
         <v>24172736</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="2"/>
         <v>Ramirez</v>
       </c>
       <c r="E71" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="3"/>
@@ -4316,14 +4313,14 @@
         <v>33979130</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="2"/>
         <v>James</v>
       </c>
       <c r="E72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="3"/>
@@ -4350,14 +4347,14 @@
         <v>34647666</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
         <v>Watson</v>
       </c>
       <c r="E73" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="3"/>
@@ -4387,14 +4384,14 @@
         <v>24042262</v>
       </c>
       <c r="C74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="2"/>
         <v>Brooks</v>
       </c>
       <c r="E74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="3"/>
@@ -4421,14 +4418,14 @@
         <v>24184502</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="2"/>
         <v>Kelly</v>
       </c>
       <c r="E75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="3"/>
@@ -4455,14 +4452,14 @@
         <v>13468654</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="2"/>
         <v>Sanders</v>
       </c>
       <c r="E76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="3"/>
@@ -4489,14 +4486,14 @@
         <v>34413216</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="2"/>
         <v>Price</v>
       </c>
       <c r="E77" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="3"/>
@@ -4523,14 +4520,14 @@
         <v>18083922</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
         <v>Bennett</v>
       </c>
       <c r="E78" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="3"/>
@@ -4557,14 +4554,14 @@
         <v>33357310</v>
       </c>
       <c r="C79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="2"/>
         <v>Wood</v>
       </c>
       <c r="E79" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="3"/>
@@ -4591,14 +4588,14 @@
         <v>33333436</v>
       </c>
       <c r="C80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="2"/>
         <v>Barnes</v>
       </c>
       <c r="E80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="3"/>
@@ -4625,14 +4622,14 @@
         <v>35287232</v>
       </c>
       <c r="C81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="2"/>
         <v>Ross</v>
       </c>
       <c r="E81" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="3"/>
@@ -4659,14 +4656,14 @@
         <v>24170128</v>
       </c>
       <c r="C82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
         <v>Henderson</v>
       </c>
       <c r="E82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="3"/>
@@ -4693,14 +4690,14 @@
         <v>32148190</v>
       </c>
       <c r="C83" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="2"/>
         <v>Coleman</v>
       </c>
       <c r="E83" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="3"/>
@@ -4727,14 +4724,14 @@
         <v>34647666</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="2"/>
         <v>Jenkins</v>
       </c>
       <c r="E84" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="3"/>
@@ -4764,14 +4761,14 @@
         <v>24183700</v>
       </c>
       <c r="C85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="2"/>
         <v>Perry</v>
       </c>
       <c r="E85" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="3"/>
@@ -4798,14 +4795,14 @@
         <v>21951896</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="2"/>
         <v>Powell</v>
       </c>
       <c r="E86" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="3"/>
@@ -4832,14 +4829,14 @@
         <v>19198536</v>
       </c>
       <c r="C87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
         <v>Long</v>
       </c>
       <c r="E87" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="3"/>
@@ -4869,14 +4866,14 @@
         <v>50</v>
       </c>
       <c r="C88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
         <v>Patterson</v>
       </c>
       <c r="E88" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="3"/>
@@ -4903,14 +4900,14 @@
         <v>24176772</v>
       </c>
       <c r="C89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="2"/>
         <v>Hughes</v>
       </c>
       <c r="E89" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="3"/>
@@ -4937,14 +4934,14 @@
         <v>22096704</v>
       </c>
       <c r="C90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
         <v>Flores</v>
       </c>
       <c r="E90" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="3"/>
@@ -4974,14 +4971,14 @@
         <v>35204170</v>
       </c>
       <c r="C91" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
         <v>Washington</v>
       </c>
       <c r="E91" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="3"/>
@@ -5008,14 +5005,14 @@
         <v>34937438</v>
       </c>
       <c r="C92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="2"/>
         <v>Butler</v>
       </c>
       <c r="E92" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="3"/>
@@ -5045,14 +5042,14 @@
         <v>34775990</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="2"/>
         <v>Simmons</v>
       </c>
       <c r="E93" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="3"/>
@@ -5079,14 +5076,14 @@
         <v>24177618</v>
       </c>
       <c r="C94" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="2"/>
         <v>Foster</v>
       </c>
       <c r="E94" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="3"/>
@@ -5113,14 +5110,14 @@
         <v>24184300</v>
       </c>
       <c r="C95" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="2"/>
         <v>Gonzales</v>
       </c>
       <c r="E95" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="3"/>
@@ -5150,14 +5147,14 @@
         <v>35172754</v>
       </c>
       <c r="C96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="2"/>
         <v>Bryant</v>
       </c>
       <c r="E96" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="3"/>
@@ -5187,14 +5184,14 @@
         <v>33188748</v>
       </c>
       <c r="C97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="2"/>
         <v>Alexander</v>
       </c>
       <c r="E97" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="3"/>
@@ -5224,14 +5221,14 @@
         <v>24173698</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="2"/>
         <v>Russell</v>
       </c>
       <c r="E98" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="3"/>
@@ -5258,14 +5255,14 @@
         <v>35017316</v>
       </c>
       <c r="C99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="2"/>
         <v>Griffin</v>
       </c>
       <c r="E99" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="3"/>
@@ -5292,14 +5289,14 @@
         <v>34647666</v>
       </c>
       <c r="C100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="2"/>
         <v>Diaz</v>
       </c>
       <c r="E100" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="3"/>
@@ -5329,14 +5326,14 @@
         <v>24184502</v>
       </c>
       <c r="C101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="2"/>
         <v>Hayes</v>
       </c>
       <c r="E101" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="3"/>
@@ -5363,14 +5360,14 @@
         <v>24173132</v>
       </c>
       <c r="C102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="2"/>
         <v>Myers</v>
       </c>
       <c r="E102" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="3"/>
@@ -5400,14 +5397,14 @@
         <v>35149408</v>
       </c>
       <c r="C103" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="2"/>
         <v>Ford</v>
       </c>
       <c r="E103" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="3"/>
@@ -5434,14 +5431,14 @@
         <v>24179662</v>
       </c>
       <c r="C104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="2"/>
         <v>Hamilton</v>
       </c>
       <c r="E104" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="3"/>
@@ -5468,14 +5465,14 @@
         <v>24178348</v>
       </c>
       <c r="C105" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="2"/>
         <v>Graham</v>
       </c>
       <c r="E105" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="3"/>
@@ -5505,14 +5502,14 @@
         <v>34647666</v>
       </c>
       <c r="C106" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="2"/>
         <v>Sullivan</v>
       </c>
       <c r="E106" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="3"/>
@@ -5539,14 +5536,14 @@
         <v>35393192</v>
       </c>
       <c r="C107" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="2"/>
         <v>Wallace</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="3"/>
@@ -5573,14 +5570,14 @@
         <v>22096704</v>
       </c>
       <c r="C108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="2"/>
         <v>Woods</v>
       </c>
       <c r="E108" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="3"/>
@@ -5610,14 +5607,14 @@
         <v>12404356</v>
       </c>
       <c r="C109" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="2"/>
         <v>Cole</v>
       </c>
       <c r="E109" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="3"/>
@@ -5641,14 +5638,14 @@
         <v>33427064</v>
       </c>
       <c r="C110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="2"/>
         <v>West</v>
       </c>
       <c r="E110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="3"/>
@@ -5678,14 +5675,14 @@
         <v>24184300</v>
       </c>
       <c r="C111" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="2"/>
         <v>Jordan</v>
       </c>
       <c r="E111" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="3"/>
@@ -5712,14 +5709,14 @@
         <v>13362004</v>
       </c>
       <c r="C112" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="2"/>
         <v>Owens</v>
       </c>
       <c r="E112" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="3"/>
@@ -5746,14 +5743,14 @@
         <v>35214520</v>
       </c>
       <c r="C113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="2"/>
         <v>Reynolds</v>
       </c>
       <c r="E113" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="3"/>
@@ -5783,14 +5780,14 @@
         <v>35204170</v>
       </c>
       <c r="C114" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="2"/>
         <v>Fisher</v>
       </c>
       <c r="E114" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="3"/>
@@ -5817,14 +5814,14 @@
         <v>50</v>
       </c>
       <c r="C115" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="2"/>
         <v>Ellis</v>
       </c>
       <c r="E115" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="3"/>
@@ -5851,14 +5848,14 @@
         <v>33188748</v>
       </c>
       <c r="C116" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="2"/>
         <v>Harrison</v>
       </c>
       <c r="E116" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="3"/>
@@ -5885,14 +5882,14 @@
         <v>35172754</v>
       </c>
       <c r="C117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="2"/>
         <v>Gibson</v>
       </c>
       <c r="E117" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="3"/>
@@ -5919,14 +5916,14 @@
         <v>33742996</v>
       </c>
       <c r="C118" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="2"/>
         <v>Mcdonald</v>
       </c>
       <c r="E118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="3"/>
@@ -5953,14 +5950,14 @@
         <v>23817212</v>
       </c>
       <c r="C119" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="2"/>
         <v>Cruz</v>
       </c>
       <c r="E119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="3"/>
@@ -5987,14 +5984,14 @@
         <v>24174106</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="2"/>
         <v>Marshall</v>
       </c>
       <c r="E120" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="3"/>
@@ -6021,14 +6018,14 @@
         <v>23572320</v>
       </c>
       <c r="C121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="2"/>
         <v>Ortiz</v>
       </c>
       <c r="E121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="3"/>
@@ -6058,14 +6055,14 @@
         <v>35204170</v>
       </c>
       <c r="C122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="2"/>
         <v>Gomez</v>
       </c>
       <c r="E122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="3"/>
@@ -6092,14 +6089,14 @@
         <v>18946998</v>
       </c>
       <c r="C123" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="2"/>
         <v>Murray</v>
       </c>
       <c r="E123" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="3"/>
@@ -6129,14 +6126,14 @@
         <v>24176626</v>
       </c>
       <c r="C124" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="2"/>
         <v>Freeman</v>
       </c>
       <c r="E124" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="3"/>
@@ -6166,14 +6163,14 @@
         <v>24179316</v>
       </c>
       <c r="C125" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="2"/>
         <v>Wells</v>
       </c>
       <c r="E125" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="3"/>
@@ -6203,14 +6200,14 @@
         <v>12405372</v>
       </c>
       <c r="C126" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="2"/>
         <v>Webb</v>
       </c>
       <c r="E126" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="3"/>
@@ -6240,14 +6237,14 @@
         <v>24184502</v>
       </c>
       <c r="C127" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="2"/>
         <v>Simpson</v>
       </c>
       <c r="E127" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="3"/>
@@ -6274,14 +6271,14 @@
         <v>16834626</v>
       </c>
       <c r="C128" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="2"/>
         <v>Stevens</v>
       </c>
       <c r="E128" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="3"/>
@@ -6308,14 +6305,14 @@
         <v>24173132</v>
       </c>
       <c r="C129" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="2"/>
         <v>Tucker</v>
       </c>
       <c r="E129" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="3"/>
@@ -6345,14 +6342,14 @@
         <v>24184502</v>
       </c>
       <c r="C130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="2"/>
         <v>Porter</v>
       </c>
       <c r="E130" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="3"/>
@@ -6379,14 +6376,14 @@
         <v>24174244</v>
       </c>
       <c r="C131" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" ref="D131:D157" si="4">PROPER(E131)</f>
         <v>Hunter</v>
       </c>
       <c r="E131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F157" si="5">CONCATENATE(C131, "@aggies.ncat.edu")</f>
@@ -6413,14 +6410,14 @@
         <v>14197736</v>
       </c>
       <c r="C132" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="4"/>
         <v>Hicks</v>
       </c>
       <c r="E132" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="5"/>
@@ -6447,14 +6444,14 @@
         <v>22096704</v>
       </c>
       <c r="C133" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="4"/>
         <v>Crawford</v>
       </c>
       <c r="E133" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="5"/>
@@ -6484,14 +6481,14 @@
         <v>34680624</v>
       </c>
       <c r="C134" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="4"/>
         <v>Henry</v>
       </c>
       <c r="E134" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="5"/>
@@ -6518,14 +6515,14 @@
         <v>18946998</v>
       </c>
       <c r="C135" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="4"/>
         <v>Boyd</v>
       </c>
       <c r="E135" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="5"/>
@@ -6555,14 +6552,14 @@
         <v>33979130</v>
       </c>
       <c r="C136" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="4"/>
         <v>Mason</v>
       </c>
       <c r="E136" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="5"/>
@@ -6589,14 +6586,14 @@
         <v>33720088</v>
       </c>
       <c r="C137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="4"/>
         <v>Morales</v>
       </c>
       <c r="E137" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="5"/>
@@ -6620,14 +6617,14 @@
         <v>18685844</v>
       </c>
       <c r="C138" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="4"/>
         <v>Kennedy</v>
       </c>
       <c r="E138" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="5"/>
@@ -6654,14 +6651,14 @@
         <v>23487944</v>
       </c>
       <c r="C139" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="4"/>
         <v>Warren</v>
       </c>
       <c r="E139" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="5"/>
@@ -6685,14 +6682,14 @@
         <v>18083922</v>
       </c>
       <c r="C140" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="4"/>
         <v>Dixon</v>
       </c>
       <c r="E140" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="5"/>
@@ -6716,14 +6713,14 @@
         <v>23816890</v>
       </c>
       <c r="C141" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="4"/>
         <v>Ramos</v>
       </c>
       <c r="E141" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="5"/>
@@ -6750,14 +6747,14 @@
         <v>24178348</v>
       </c>
       <c r="C142" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="4"/>
         <v>Reyes</v>
       </c>
       <c r="E142" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="5"/>
@@ -6784,14 +6781,14 @@
         <v>16830868</v>
       </c>
       <c r="C143" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="4"/>
         <v>Burns</v>
       </c>
       <c r="E143" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="5"/>
@@ -6818,14 +6815,14 @@
         <v>35203756</v>
       </c>
       <c r="C144" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="4"/>
         <v>Gordon</v>
       </c>
       <c r="E144" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="5"/>
@@ -6852,14 +6849,14 @@
         <v>33524160</v>
       </c>
       <c r="C145" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="4"/>
         <v>Shaw</v>
       </c>
       <c r="E145" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="5"/>
@@ -6886,14 +6883,14 @@
         <v>32800506</v>
       </c>
       <c r="C146" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="4"/>
         <v>Holmes</v>
       </c>
       <c r="E146" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="5"/>
@@ -6917,14 +6914,14 @@
         <v>12405372</v>
       </c>
       <c r="C147" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="4"/>
         <v>Rice</v>
       </c>
       <c r="E147" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="5"/>
@@ -6951,14 +6948,14 @@
         <v>24183758</v>
       </c>
       <c r="C148" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="4"/>
         <v>Robertson</v>
       </c>
       <c r="E148" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="5"/>
@@ -6982,14 +6979,14 @@
         <v>24177480</v>
       </c>
       <c r="C149" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="4"/>
         <v>Hunt</v>
       </c>
       <c r="E149" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="5"/>
@@ -7013,14 +7010,14 @@
         <v>24178348</v>
       </c>
       <c r="C150" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="4"/>
         <v>Black</v>
       </c>
       <c r="E150" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="5"/>
@@ -7047,14 +7044,14 @@
         <v>7895608</v>
       </c>
       <c r="C151" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="4"/>
         <v>Daniels</v>
       </c>
       <c r="E151" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="5"/>
@@ -7078,14 +7075,14 @@
         <v>13362004</v>
       </c>
       <c r="C152" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="4"/>
         <v>Palmer</v>
       </c>
       <c r="E152" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="5"/>
@@ -7109,14 +7106,14 @@
         <v>24179316</v>
       </c>
       <c r="C153" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="4"/>
         <v>Mills</v>
       </c>
       <c r="E153" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="5"/>
@@ -7143,14 +7140,14 @@
         <v>34423558</v>
       </c>
       <c r="C154" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="4"/>
         <v>Nichols</v>
       </c>
       <c r="E154" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="5"/>
@@ -7174,14 +7171,14 @@
         <v>23573594</v>
       </c>
       <c r="C155" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="4"/>
         <v>Grant</v>
       </c>
       <c r="E155" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="5"/>
@@ -7205,14 +7202,14 @@
         <v>23528</v>
       </c>
       <c r="C156" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="4"/>
         <v>Knight</v>
       </c>
       <c r="E156" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="5"/>
@@ -7236,14 +7233,14 @@
         <v>33742996</v>
       </c>
       <c r="C157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="4"/>
         <v>Ferguson</v>
       </c>
       <c r="E157" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="5"/>
